--- a/VersionRecords/Version 5.3.1 20170223/版本Bug和特性计划及评审表v5.3.1_极光组.xlsx
+++ b/VersionRecords/Version 5.3.1 20170223/版本Bug和特性计划及评审表v5.3.1_极光组.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ideaGit\Mogo_Doc\VersionRecords\Version 5.3.1 20170223\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="9120" windowWidth="28140" windowHeight="8835"/>
+    <workbookView xWindow="7215" yWindow="9120" windowWidth="28140" windowHeight="8835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -287,12 +292,71 @@
   <si>
     <t>DV-2541</t>
   </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>JG组</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝统计定时器</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>MogoBaoStatisticsTask</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>如有错，需开发修复</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.1</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天9点10分执行一次</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MogoBaoStatisticsTask"}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MogoBaoStatisticsTask</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -443,6 +507,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -696,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,6 +1001,15 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -973,7 +1053,7 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="5" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -992,77 +1072,12 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1076,7 +1091,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1396,14 +1411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
@@ -1428,7 +1443,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="14.25" thickBot="1">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1561,7 +1576,7 @@
       <c r="W2" s="70"/>
       <c r="X2" s="69"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -1587,7 +1602,7 @@
       <c r="W3" s="70"/>
       <c r="X3" s="69"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -1613,7 +1628,7 @@
       <c r="W4" s="70"/>
       <c r="X4" s="69"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -1639,7 +1654,7 @@
       <c r="W5" s="70"/>
       <c r="X5" s="69"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1665,7 +1680,7 @@
       <c r="W6" s="70"/>
       <c r="X6" s="69"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1691,7 +1706,7 @@
       <c r="W7" s="70"/>
       <c r="X7" s="69"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1717,7 +1732,7 @@
       <c r="W8" s="70"/>
       <c r="X8" s="69"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1743,7 +1758,7 @@
       <c r="W9" s="70"/>
       <c r="X9" s="69"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1769,7 +1784,7 @@
       <c r="W10" s="70"/>
       <c r="X10" s="69"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1795,7 +1810,7 @@
       <c r="W11" s="70"/>
       <c r="X11" s="69"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -1821,7 +1836,7 @@
       <c r="W12" s="70"/>
       <c r="X12" s="69"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -1847,7 +1862,7 @@
       <c r="W13" s="72"/>
       <c r="X13" s="69"/>
     </row>
-    <row r="14" spans="1:24" ht="16.5">
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -1872,7 +1887,7 @@
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
     </row>
-    <row r="15" spans="1:24" ht="16.5">
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -1897,7 +1912,7 @@
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
     </row>
-    <row r="16" spans="1:24" ht="16.5">
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1922,7 +1937,7 @@
       <c r="V16" s="59"/>
       <c r="W16" s="60"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1947,7 +1962,7 @@
       <c r="V17" s="59"/>
       <c r="W17" s="70"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5">
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -1972,7 +1987,7 @@
       <c r="V18" s="59"/>
       <c r="W18" s="70"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5">
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -1997,7 +2012,7 @@
       <c r="V19" s="59"/>
       <c r="W19" s="70"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5">
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2022,7 +2037,7 @@
       <c r="V20" s="73"/>
       <c r="W20" s="74"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5">
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2047,7 +2062,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="74"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5">
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2072,7 +2087,7 @@
       <c r="V22" s="76"/>
       <c r="W22" s="74"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5">
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2097,7 +2112,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="74"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5">
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2122,7 +2137,7 @@
       <c r="V24" s="75"/>
       <c r="W24" s="74"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5">
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2147,7 +2162,7 @@
       <c r="V25" s="71"/>
       <c r="W25" s="62"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5">
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2172,7 +2187,7 @@
       <c r="V26" s="59"/>
       <c r="W26" s="70"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5">
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2197,7 +2212,7 @@
       <c r="V27" s="59"/>
       <c r="W27" s="70"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5">
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2222,7 +2237,7 @@
       <c r="V28" s="59"/>
       <c r="W28" s="70"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5">
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2247,7 +2262,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="74"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5">
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2272,7 +2287,7 @@
       <c r="V30" s="59"/>
       <c r="W30" s="68"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5">
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2297,7 +2312,7 @@
       <c r="V31" s="59"/>
       <c r="W31" s="70"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2322,7 +2337,7 @@
       <c r="V32" s="59"/>
       <c r="W32" s="70"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2347,7 +2362,7 @@
       <c r="V33" s="59"/>
       <c r="W33" s="70"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2372,7 +2387,7 @@
       <c r="V34" s="59"/>
       <c r="W34" s="70"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2397,7 +2412,7 @@
       <c r="V35" s="59"/>
       <c r="W35" s="70"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2422,7 +2437,7 @@
       <c r="V36" s="59"/>
       <c r="W36" s="70"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2447,7 +2462,7 @@
       <c r="V37" s="59"/>
       <c r="W37" s="70"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2472,7 +2487,7 @@
       <c r="V38" s="59"/>
       <c r="W38" s="70"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2497,7 +2512,7 @@
       <c r="V39" s="59"/>
       <c r="W39" s="70"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2522,7 +2537,7 @@
       <c r="V40" s="59"/>
       <c r="W40" s="70"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5">
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2547,7 +2562,7 @@
       <c r="V41" s="71"/>
       <c r="W41" s="70"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5">
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2572,7 +2587,7 @@
       <c r="V42" s="71"/>
       <c r="W42" s="70"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2597,7 +2612,7 @@
       <c r="V43" s="59"/>
       <c r="W43" s="60"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2622,7 +2637,7 @@
       <c r="V44" s="59"/>
       <c r="W44" s="60"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5">
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2647,7 +2662,7 @@
       <c r="V45" s="59"/>
       <c r="W45" s="60"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5">
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2672,7 +2687,7 @@
       <c r="V46" s="59"/>
       <c r="W46" s="60"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2697,7 +2712,7 @@
       <c r="V47" s="59"/>
       <c r="W47" s="60"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2722,7 +2737,7 @@
       <c r="V48" s="59"/>
       <c r="W48" s="60"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2747,7 +2762,7 @@
       <c r="V49" s="59"/>
       <c r="W49" s="60"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5">
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="59"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
@@ -2772,7 +2787,7 @@
       <c r="V50" s="59"/>
       <c r="W50" s="60"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5">
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="59"/>
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
@@ -2797,7 +2812,7 @@
       <c r="V51" s="59"/>
       <c r="W51" s="60"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5">
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="59"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
@@ -2822,7 +2837,7 @@
       <c r="V52" s="59"/>
       <c r="W52" s="60"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5">
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="59"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
@@ -2847,7 +2862,7 @@
       <c r="V53" s="59"/>
       <c r="W53" s="60"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5">
+    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="59"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
@@ -2872,7 +2887,7 @@
       <c r="V54" s="59"/>
       <c r="W54" s="60"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5">
+    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
@@ -2897,7 +2912,7 @@
       <c r="V55" s="59"/>
       <c r="W55" s="60"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5">
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="59"/>
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
@@ -2922,7 +2937,7 @@
       <c r="V56" s="59"/>
       <c r="W56" s="60"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5">
+    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -2947,7 +2962,7 @@
       <c r="V57" s="59"/>
       <c r="W57" s="60"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5">
+    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -2972,7 +2987,7 @@
       <c r="V58" s="59"/>
       <c r="W58" s="60"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5">
+    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
@@ -2997,7 +3012,7 @@
       <c r="V59" s="59"/>
       <c r="W59" s="60"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5">
+    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
@@ -3022,7 +3037,7 @@
       <c r="V60" s="59"/>
       <c r="W60" s="60"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5">
+    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -3047,7 +3062,7 @@
       <c r="V61" s="59"/>
       <c r="W61" s="60"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5">
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="59"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
@@ -3072,7 +3087,7 @@
       <c r="V62" s="59"/>
       <c r="W62" s="60"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5">
+    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
@@ -3097,7 +3112,7 @@
       <c r="V63" s="59"/>
       <c r="W63" s="60"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5">
+    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
@@ -3122,7 +3137,7 @@
       <c r="V64" s="59"/>
       <c r="W64" s="60"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -3147,7 +3162,7 @@
       <c r="V65" s="59"/>
       <c r="W65" s="60"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5">
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
@@ -3172,7 +3187,7 @@
       <c r="V66" s="59"/>
       <c r="W66" s="60"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5">
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="59"/>
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
@@ -3197,7 +3212,7 @@
       <c r="V67" s="59"/>
       <c r="W67" s="60"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5">
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="59"/>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
@@ -3222,7 +3237,7 @@
       <c r="V68" s="59"/>
       <c r="W68" s="60"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5">
+    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="59"/>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
@@ -3247,7 +3262,7 @@
       <c r="V69" s="59"/>
       <c r="W69" s="60"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5">
+    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
@@ -3272,7 +3287,7 @@
       <c r="V70" s="59"/>
       <c r="W70" s="60"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5">
+    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
@@ -3297,7 +3312,7 @@
       <c r="V71" s="59"/>
       <c r="W71" s="60"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5">
+    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
@@ -3322,7 +3337,7 @@
       <c r="V72" s="59"/>
       <c r="W72" s="60"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5">
+    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
@@ -3347,7 +3362,7 @@
       <c r="V73" s="59"/>
       <c r="W73" s="60"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5">
+    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
@@ -3372,7 +3387,7 @@
       <c r="V74" s="59"/>
       <c r="W74" s="60"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5">
+    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
@@ -3397,7 +3412,7 @@
       <c r="V75" s="59"/>
       <c r="W75" s="60"/>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
@@ -3422,7 +3437,7 @@
       <c r="V76" s="59"/>
       <c r="W76" s="60"/>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
@@ -3447,7 +3462,7 @@
       <c r="V77" s="59"/>
       <c r="W77" s="60"/>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A78" s="59"/>
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
@@ -3472,7 +3487,7 @@
       <c r="V78" s="59"/>
       <c r="W78" s="60"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A79" s="59"/>
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
@@ -3497,7 +3512,7 @@
       <c r="V79" s="59"/>
       <c r="W79" s="60"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A80" s="59"/>
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
@@ -3522,7 +3537,7 @@
       <c r="V80" s="59"/>
       <c r="W80" s="60"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A81" s="59"/>
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
@@ -3547,7 +3562,7 @@
       <c r="V81" s="59"/>
       <c r="W81" s="60"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
@@ -3572,7 +3587,7 @@
       <c r="V82" s="59"/>
       <c r="W82" s="60"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A83" s="59"/>
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
@@ -3597,7 +3612,7 @@
       <c r="V83" s="59"/>
       <c r="W83" s="60"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A84" s="59"/>
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
@@ -3622,7 +3637,7 @@
       <c r="V84" s="59"/>
       <c r="W84" s="60"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A85" s="59"/>
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
@@ -3647,7 +3662,7 @@
       <c r="V85" s="59"/>
       <c r="W85" s="60"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A86" s="59"/>
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
@@ -3672,7 +3687,7 @@
       <c r="V86" s="59"/>
       <c r="W86" s="60"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A87" s="59"/>
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
@@ -3697,7 +3712,7 @@
       <c r="V87" s="59"/>
       <c r="W87" s="60"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
@@ -3722,7 +3737,7 @@
       <c r="V88" s="59"/>
       <c r="W88" s="60"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A89" s="59"/>
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
@@ -3747,7 +3762,7 @@
       <c r="V89" s="59"/>
       <c r="W89" s="60"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A90" s="59"/>
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
@@ -3772,7 +3787,7 @@
       <c r="V90" s="59"/>
       <c r="W90" s="60"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A91" s="59"/>
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
@@ -3797,7 +3812,7 @@
       <c r="V91" s="59"/>
       <c r="W91" s="60"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A92" s="59"/>
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
@@ -3822,7 +3837,7 @@
       <c r="V92" s="59"/>
       <c r="W92" s="60"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93" s="59"/>
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
@@ -3847,7 +3862,7 @@
       <c r="V93" s="59"/>
       <c r="W93" s="60"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A94" s="59"/>
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
@@ -3872,7 +3887,7 @@
       <c r="V94" s="59"/>
       <c r="W94" s="60"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A95" s="59"/>
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
@@ -3897,7 +3912,7 @@
       <c r="V95" s="59"/>
       <c r="W95" s="60"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A96" s="59"/>
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
@@ -3922,7 +3937,7 @@
       <c r="V96" s="59"/>
       <c r="W96" s="60"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
@@ -3947,7 +3962,7 @@
       <c r="V97" s="59"/>
       <c r="W97" s="60"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A98" s="59"/>
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
@@ -3972,7 +3987,7 @@
       <c r="V98" s="59"/>
       <c r="W98" s="60"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A99" s="59"/>
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
@@ -3997,7 +4012,7 @@
       <c r="V99" s="59"/>
       <c r="W99" s="60"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A100" s="59"/>
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
@@ -4022,7 +4037,7 @@
       <c r="V100" s="59"/>
       <c r="W100" s="60"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A101" s="59"/>
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
@@ -4047,7 +4062,7 @@
       <c r="V101" s="59"/>
       <c r="W101" s="60"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A102" s="59"/>
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
@@ -4072,7 +4087,7 @@
       <c r="V102" s="59"/>
       <c r="W102" s="60"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A103" s="59"/>
       <c r="B103" s="59"/>
       <c r="C103" s="59"/>
@@ -4097,7 +4112,7 @@
       <c r="V103" s="59"/>
       <c r="W103" s="60"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A104" s="59"/>
       <c r="B104" s="59"/>
       <c r="C104" s="59"/>
@@ -4122,7 +4137,7 @@
       <c r="V104" s="59"/>
       <c r="W104" s="60"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A105" s="59"/>
       <c r="B105" s="59"/>
       <c r="C105" s="59"/>
@@ -4147,7 +4162,7 @@
       <c r="V105" s="59"/>
       <c r="W105" s="60"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A106" s="59"/>
       <c r="B106" s="59"/>
       <c r="C106" s="59"/>
@@ -4172,7 +4187,7 @@
       <c r="V106" s="59"/>
       <c r="W106" s="60"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A107" s="59"/>
       <c r="B107" s="59"/>
       <c r="C107" s="59"/>
@@ -4197,7 +4212,7 @@
       <c r="V107" s="59"/>
       <c r="W107" s="60"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A108" s="59"/>
       <c r="B108" s="59"/>
       <c r="C108" s="59"/>
@@ -4222,7 +4237,7 @@
       <c r="V108" s="59"/>
       <c r="W108" s="60"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A109" s="59"/>
       <c r="B109" s="59"/>
       <c r="C109" s="59"/>
@@ -4247,7 +4262,7 @@
       <c r="V109" s="59"/>
       <c r="W109" s="60"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A110" s="59"/>
       <c r="B110" s="59"/>
       <c r="C110" s="59"/>
@@ -4272,7 +4287,7 @@
       <c r="V110" s="59"/>
       <c r="W110" s="60"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A111" s="59"/>
       <c r="B111" s="59"/>
       <c r="C111" s="59"/>
@@ -4297,7 +4312,7 @@
       <c r="V111" s="59"/>
       <c r="W111" s="60"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A112" s="59"/>
       <c r="B112" s="59"/>
       <c r="C112" s="59"/>
@@ -4322,7 +4337,7 @@
       <c r="V112" s="59"/>
       <c r="W112" s="60"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A113" s="59"/>
       <c r="B113" s="59"/>
       <c r="C113" s="59"/>
@@ -4347,7 +4362,7 @@
       <c r="V113" s="59"/>
       <c r="W113" s="60"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A114" s="59"/>
       <c r="B114" s="59"/>
       <c r="C114" s="59"/>
@@ -4372,7 +4387,7 @@
       <c r="V114" s="59"/>
       <c r="W114" s="60"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A115" s="59"/>
       <c r="B115" s="59"/>
       <c r="C115" s="59"/>
@@ -4397,7 +4412,7 @@
       <c r="V115" s="59"/>
       <c r="W115" s="60"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A116" s="59"/>
       <c r="B116" s="59"/>
       <c r="C116" s="59"/>
@@ -4422,7 +4437,7 @@
       <c r="V116" s="59"/>
       <c r="W116" s="60"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="59"/>
       <c r="B117" s="59"/>
       <c r="C117" s="59"/>
@@ -4447,7 +4462,7 @@
       <c r="V117" s="59"/>
       <c r="W117" s="60"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A118" s="59"/>
       <c r="B118" s="59"/>
       <c r="C118" s="59"/>
@@ -4472,7 +4487,7 @@
       <c r="V118" s="59"/>
       <c r="W118" s="60"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A119" s="59"/>
       <c r="B119" s="59"/>
       <c r="C119" s="59"/>
@@ -4497,7 +4512,7 @@
       <c r="V119" s="59"/>
       <c r="W119" s="60"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A120" s="59"/>
       <c r="B120" s="59"/>
       <c r="C120" s="59"/>
@@ -4522,7 +4537,7 @@
       <c r="V120" s="59"/>
       <c r="W120" s="60"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A121" s="59"/>
       <c r="B121" s="59"/>
       <c r="C121" s="59"/>
@@ -4547,7 +4562,7 @@
       <c r="V121" s="59"/>
       <c r="W121" s="60"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A122" s="59"/>
       <c r="B122" s="59"/>
       <c r="C122" s="59"/>
@@ -4572,7 +4587,7 @@
       <c r="V122" s="59"/>
       <c r="W122" s="60"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A123" s="59"/>
       <c r="B123" s="59"/>
       <c r="C123" s="59"/>
@@ -4597,7 +4612,7 @@
       <c r="V123" s="59"/>
       <c r="W123" s="60"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="59"/>
       <c r="B124" s="59"/>
       <c r="C124" s="59"/>
@@ -4622,7 +4637,7 @@
       <c r="V124" s="59"/>
       <c r="W124" s="60"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="59"/>
       <c r="B125" s="59"/>
       <c r="C125" s="59"/>
@@ -4647,7 +4662,7 @@
       <c r="V125" s="59"/>
       <c r="W125" s="60"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="59"/>
       <c r="B126" s="59"/>
       <c r="C126" s="59"/>
@@ -4672,7 +4687,7 @@
       <c r="V126" s="59"/>
       <c r="W126" s="60"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="59"/>
       <c r="B127" s="59"/>
       <c r="C127" s="59"/>
@@ -4697,7 +4712,7 @@
       <c r="V127" s="59"/>
       <c r="W127" s="60"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="59"/>
       <c r="B128" s="59"/>
       <c r="C128" s="59"/>
@@ -4722,7 +4737,7 @@
       <c r="V128" s="59"/>
       <c r="W128" s="60"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="59"/>
       <c r="B129" s="59"/>
       <c r="C129" s="59"/>
@@ -4747,7 +4762,7 @@
       <c r="V129" s="59"/>
       <c r="W129" s="60"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="59"/>
       <c r="B130" s="59"/>
       <c r="C130" s="59"/>
@@ -4772,7 +4787,7 @@
       <c r="V130" s="59"/>
       <c r="W130" s="60"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="59"/>
       <c r="B131" s="59"/>
       <c r="C131" s="59"/>
@@ -4797,7 +4812,7 @@
       <c r="V131" s="59"/>
       <c r="W131" s="60"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="59"/>
       <c r="B132" s="59"/>
       <c r="C132" s="59"/>
@@ -4818,7 +4833,7 @@
       <c r="R132" s="60"/>
       <c r="W132" s="60"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="59"/>
       <c r="B133" s="59"/>
       <c r="C133" s="59"/>
@@ -4839,7 +4854,7 @@
       <c r="R133" s="60"/>
       <c r="W133" s="60"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="59"/>
       <c r="B134" s="59"/>
       <c r="C134" s="59"/>
@@ -4860,7 +4875,7 @@
       <c r="R134" s="60"/>
       <c r="W134" s="60"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="59"/>
       <c r="B135" s="59"/>
       <c r="C135" s="59"/>
@@ -4881,7 +4896,7 @@
       <c r="R135" s="60"/>
       <c r="W135" s="60"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="59"/>
       <c r="B136" s="59"/>
       <c r="C136" s="59"/>
@@ -4902,7 +4917,7 @@
       <c r="R136" s="60"/>
       <c r="W136" s="60"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="59"/>
       <c r="B137" s="59"/>
       <c r="C137" s="59"/>
@@ -4923,7 +4938,7 @@
       <c r="R137" s="60"/>
       <c r="W137" s="60"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="59"/>
       <c r="B138" s="59"/>
       <c r="C138" s="59"/>
@@ -4944,7 +4959,7 @@
       <c r="R138" s="60"/>
       <c r="W138" s="60"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="59"/>
       <c r="B139" s="59"/>
       <c r="C139" s="59"/>
@@ -4965,7 +4980,7 @@
       <c r="R139" s="60"/>
       <c r="W139" s="60"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="59"/>
       <c r="B140" s="59"/>
       <c r="C140" s="59"/>
@@ -4986,7 +5001,7 @@
       <c r="R140" s="60"/>
       <c r="W140" s="60"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="59"/>
       <c r="B141" s="59"/>
       <c r="C141" s="59"/>
@@ -5007,7 +5022,7 @@
       <c r="R141" s="60"/>
       <c r="W141" s="60"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="59"/>
       <c r="B142" s="59"/>
       <c r="C142" s="59"/>
@@ -5028,7 +5043,7 @@
       <c r="R142" s="60"/>
       <c r="W142" s="60"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="59"/>
       <c r="B143" s="59"/>
       <c r="C143" s="59"/>
@@ -5049,7 +5064,7 @@
       <c r="R143" s="60"/>
       <c r="W143" s="60"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="59"/>
       <c r="B144" s="59"/>
       <c r="C144" s="59"/>
@@ -5070,7 +5085,7 @@
       <c r="R144" s="60"/>
       <c r="W144" s="60"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="59"/>
       <c r="B145" s="59"/>
       <c r="C145" s="59"/>
@@ -5091,7 +5106,7 @@
       <c r="R145" s="60"/>
       <c r="W145" s="60"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="59"/>
       <c r="B146" s="59"/>
       <c r="C146" s="59"/>
@@ -5112,7 +5127,7 @@
       <c r="R146" s="60"/>
       <c r="W146" s="60"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="59"/>
       <c r="B147" s="59"/>
       <c r="C147" s="59"/>
@@ -5133,7 +5148,7 @@
       <c r="R147" s="60"/>
       <c r="W147" s="60"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="59"/>
       <c r="B148" s="59"/>
       <c r="C148" s="59"/>
@@ -5154,7 +5169,7 @@
       <c r="R148" s="60"/>
       <c r="W148" s="60"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="59"/>
       <c r="B149" s="59"/>
       <c r="C149" s="59"/>
@@ -5175,7 +5190,7 @@
       <c r="R149" s="60"/>
       <c r="W149" s="60"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="59"/>
       <c r="B150" s="59"/>
       <c r="C150" s="59"/>
@@ -5196,7 +5211,7 @@
       <c r="R150" s="60"/>
       <c r="W150" s="60"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="59"/>
       <c r="B151" s="59"/>
       <c r="C151" s="59"/>
@@ -5217,7 +5232,7 @@
       <c r="R151" s="60"/>
       <c r="W151" s="60"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="59"/>
       <c r="B152" s="59"/>
       <c r="C152" s="59"/>
@@ -5238,7 +5253,7 @@
       <c r="R152" s="60"/>
       <c r="W152" s="60"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="59"/>
       <c r="B153" s="59"/>
       <c r="C153" s="59"/>
@@ -5259,7 +5274,7 @@
       <c r="R153" s="60"/>
       <c r="W153" s="60"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="59"/>
       <c r="B154" s="59"/>
       <c r="C154" s="59"/>
@@ -5280,7 +5295,7 @@
       <c r="R154" s="60"/>
       <c r="W154" s="60"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="59"/>
       <c r="B155" s="59"/>
       <c r="C155" s="59"/>
@@ -5301,7 +5316,7 @@
       <c r="R155" s="60"/>
       <c r="W155" s="60"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="59"/>
       <c r="B156" s="59"/>
       <c r="C156" s="59"/>
@@ -5322,7 +5337,7 @@
       <c r="R156" s="60"/>
       <c r="W156" s="60"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="59"/>
       <c r="B157" s="59"/>
       <c r="C157" s="59"/>
@@ -5343,7 +5358,7 @@
       <c r="R157" s="60"/>
       <c r="W157" s="60"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="59"/>
       <c r="B158" s="59"/>
       <c r="C158" s="59"/>
@@ -5364,7 +5379,7 @@
       <c r="R158" s="60"/>
       <c r="W158" s="60"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="59"/>
       <c r="B159" s="59"/>
       <c r="C159" s="59"/>
@@ -5385,7 +5400,7 @@
       <c r="R159" s="60"/>
       <c r="W159" s="60"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="59"/>
       <c r="B160" s="59"/>
       <c r="C160" s="59"/>
@@ -5406,7 +5421,7 @@
       <c r="R160" s="60"/>
       <c r="W160" s="60"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="59"/>
       <c r="B161" s="59"/>
       <c r="C161" s="59"/>
@@ -5427,7 +5442,7 @@
       <c r="R161" s="60"/>
       <c r="W161" s="60"/>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="59"/>
       <c r="B162" s="59"/>
       <c r="C162" s="59"/>
@@ -5448,7 +5463,7 @@
       <c r="R162" s="60"/>
       <c r="W162" s="60"/>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="59"/>
       <c r="B163" s="59"/>
       <c r="C163" s="59"/>
@@ -5469,7 +5484,7 @@
       <c r="R163" s="60"/>
       <c r="W163" s="60"/>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="59"/>
       <c r="B164" s="59"/>
       <c r="C164" s="59"/>
@@ -5490,7 +5505,7 @@
       <c r="R164" s="60"/>
       <c r="W164" s="60"/>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="59"/>
       <c r="B165" s="59"/>
       <c r="C165" s="59"/>
@@ -5511,7 +5526,7 @@
       <c r="R165" s="60"/>
       <c r="W165" s="60"/>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="59"/>
       <c r="B166" s="59"/>
       <c r="C166" s="59"/>
@@ -5566,14 +5581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5593,7 +5608,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -5649,27 +5664,61 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="43"/>
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>92</v>
+      </c>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5689,7 +5738,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5716,14 +5765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
@@ -5736,22 +5785,22 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -5786,9 +5835,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5799,9 +5848,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5812,9 +5861,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5825,9 +5874,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5838,9 +5887,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5851,9 +5900,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5864,9 +5913,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5877,9 +5926,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5890,7 +5939,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5917,14 +5966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5939,39 +5988,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6012,7 +6061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6027,7 +6076,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6042,7 +6091,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6057,7 +6106,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6072,7 +6121,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6087,7 +6136,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6102,7 +6151,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6117,7 +6166,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6132,7 +6181,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6147,7 +6196,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6162,7 +6211,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6177,7 +6226,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6192,7 +6241,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6231,14 +6280,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6253,39 +6302,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6326,7 +6375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6341,7 +6390,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6356,7 +6405,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6371,7 +6420,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6386,7 +6435,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6401,7 +6450,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6416,7 +6465,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6431,7 +6480,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6446,7 +6495,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6461,7 +6510,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6476,7 +6525,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6491,7 +6540,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6506,7 +6555,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6545,14 +6594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6567,39 +6616,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6640,7 +6689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6655,7 +6704,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6670,7 +6719,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6685,7 +6734,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6700,7 +6749,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6715,7 +6764,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6730,7 +6779,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6745,7 +6794,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6760,7 +6809,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6775,7 +6824,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6790,7 +6839,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6805,7 +6854,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6820,7 +6869,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6859,14 +6908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -6883,39 +6932,39 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6956,7 +7005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6971,7 +7020,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6986,7 +7035,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7001,7 +7050,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7016,7 +7065,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7031,7 +7080,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7046,7 +7095,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7061,7 +7110,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7076,7 +7125,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7091,7 +7140,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7106,7 +7155,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7121,7 +7170,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7136,7 +7185,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7175,14 +7224,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7193,7 +7242,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -7219,7 +7268,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7229,7 +7278,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7239,7 +7288,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7249,7 +7298,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7259,7 +7308,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7269,7 +7318,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7279,7 +7328,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7289,7 +7338,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7299,7 +7348,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7309,7 +7358,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7319,7 +7368,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7329,7 +7378,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7339,7 +7388,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7349,7 +7398,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7359,7 +7408,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7369,7 +7418,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7379,7 +7428,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7389,7 +7438,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.3.1 20170223/版本Bug和特性计划及评审表v5.3.1_极光组.xlsx
+++ b/VersionRecords/Version 5.3.1 20170223/版本Bug和特性计划及评审表v5.3.1_极光组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ideaGit\Mogo_Doc\VersionRecords\Version 5.3.1 20170223\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="7215" yWindow="9120" windowWidth="28140" windowHeight="8835" activeTab="1"/>
   </bookViews>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -300,10 +295,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>JG组</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>蘑菇宝统计定时器</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -325,38 +316,46 @@
     <t>不用填</t>
   </si>
   <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>如有错，需开发修复</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.1</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天9点10分执行一次</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MogoBaoStatisticsTask"}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MogoBaoStatisticsTask</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
     <t>MogoBaoStatisticsTask</t>
     <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务</t>
-  </si>
-  <si>
-    <t>如有错，需开发修复</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3.1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天9点10分执行一次</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MogoBaoStatisticsTask"}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.MogoBaoStatisticsTask</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1053,7 +1052,7 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="5" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1072,6 +1071,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1091,7 +1158,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1411,14 +1478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
@@ -1443,7 +1510,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1576,7 +1643,7 @@
       <c r="W2" s="70"/>
       <c r="X2" s="69"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A3" s="51"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -1602,7 +1669,7 @@
       <c r="W3" s="70"/>
       <c r="X3" s="69"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -1628,7 +1695,7 @@
       <c r="W4" s="70"/>
       <c r="X4" s="69"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -1654,7 +1721,7 @@
       <c r="W5" s="70"/>
       <c r="X5" s="69"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1680,7 +1747,7 @@
       <c r="W6" s="70"/>
       <c r="X6" s="69"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1706,7 +1773,7 @@
       <c r="W7" s="70"/>
       <c r="X7" s="69"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1732,7 +1799,7 @@
       <c r="W8" s="70"/>
       <c r="X8" s="69"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1758,7 +1825,7 @@
       <c r="W9" s="70"/>
       <c r="X9" s="69"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1784,7 +1851,7 @@
       <c r="W10" s="70"/>
       <c r="X10" s="69"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1810,7 +1877,7 @@
       <c r="W11" s="70"/>
       <c r="X11" s="69"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -1836,7 +1903,7 @@
       <c r="W12" s="70"/>
       <c r="X12" s="69"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -1862,7 +1929,7 @@
       <c r="W13" s="72"/>
       <c r="X13" s="69"/>
     </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -1887,7 +1954,7 @@
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
     </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -1912,7 +1979,7 @@
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
     </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1937,7 +2004,7 @@
       <c r="V16" s="59"/>
       <c r="W16" s="60"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1962,7 +2029,7 @@
       <c r="V17" s="59"/>
       <c r="W17" s="70"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -1987,7 +2054,7 @@
       <c r="V18" s="59"/>
       <c r="W18" s="70"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2012,7 +2079,7 @@
       <c r="V19" s="59"/>
       <c r="W19" s="70"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2037,7 +2104,7 @@
       <c r="V20" s="73"/>
       <c r="W20" s="74"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2062,7 +2129,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="74"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2087,7 +2154,7 @@
       <c r="V22" s="76"/>
       <c r="W22" s="74"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2112,7 +2179,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="74"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2137,7 +2204,7 @@
       <c r="V24" s="75"/>
       <c r="W24" s="74"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2162,7 +2229,7 @@
       <c r="V25" s="71"/>
       <c r="W25" s="62"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2187,7 +2254,7 @@
       <c r="V26" s="59"/>
       <c r="W26" s="70"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2212,7 +2279,7 @@
       <c r="V27" s="59"/>
       <c r="W27" s="70"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2237,7 +2304,7 @@
       <c r="V28" s="59"/>
       <c r="W28" s="70"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2262,7 +2329,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="74"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2287,7 +2354,7 @@
       <c r="V30" s="59"/>
       <c r="W30" s="68"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2312,7 +2379,7 @@
       <c r="V31" s="59"/>
       <c r="W31" s="70"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2337,7 +2404,7 @@
       <c r="V32" s="59"/>
       <c r="W32" s="70"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2362,7 +2429,7 @@
       <c r="V33" s="59"/>
       <c r="W33" s="70"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2387,7 +2454,7 @@
       <c r="V34" s="59"/>
       <c r="W34" s="70"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2412,7 +2479,7 @@
       <c r="V35" s="59"/>
       <c r="W35" s="70"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2437,7 +2504,7 @@
       <c r="V36" s="59"/>
       <c r="W36" s="70"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2462,7 +2529,7 @@
       <c r="V37" s="59"/>
       <c r="W37" s="70"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2487,7 +2554,7 @@
       <c r="V38" s="59"/>
       <c r="W38" s="70"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2512,7 +2579,7 @@
       <c r="V39" s="59"/>
       <c r="W39" s="70"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2537,7 +2604,7 @@
       <c r="V40" s="59"/>
       <c r="W40" s="70"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2562,7 +2629,7 @@
       <c r="V41" s="71"/>
       <c r="W41" s="70"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2587,7 +2654,7 @@
       <c r="V42" s="71"/>
       <c r="W42" s="70"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2612,7 +2679,7 @@
       <c r="V43" s="59"/>
       <c r="W43" s="60"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2637,7 +2704,7 @@
       <c r="V44" s="59"/>
       <c r="W44" s="60"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2662,7 +2729,7 @@
       <c r="V45" s="59"/>
       <c r="W45" s="60"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2687,7 +2754,7 @@
       <c r="V46" s="59"/>
       <c r="W46" s="60"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2712,7 +2779,7 @@
       <c r="V47" s="59"/>
       <c r="W47" s="60"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2737,7 +2804,7 @@
       <c r="V48" s="59"/>
       <c r="W48" s="60"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2762,7 +2829,7 @@
       <c r="V49" s="59"/>
       <c r="W49" s="60"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="59"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
@@ -2787,7 +2854,7 @@
       <c r="V50" s="59"/>
       <c r="W50" s="60"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="59"/>
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
@@ -2812,7 +2879,7 @@
       <c r="V51" s="59"/>
       <c r="W51" s="60"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="59"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
@@ -2837,7 +2904,7 @@
       <c r="V52" s="59"/>
       <c r="W52" s="60"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="59"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
@@ -2862,7 +2929,7 @@
       <c r="V53" s="59"/>
       <c r="W53" s="60"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="59"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
@@ -2887,7 +2954,7 @@
       <c r="V54" s="59"/>
       <c r="W54" s="60"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
@@ -2912,7 +2979,7 @@
       <c r="V55" s="59"/>
       <c r="W55" s="60"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="59"/>
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
@@ -2937,7 +3004,7 @@
       <c r="V56" s="59"/>
       <c r="W56" s="60"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -2962,7 +3029,7 @@
       <c r="V57" s="59"/>
       <c r="W57" s="60"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -2987,7 +3054,7 @@
       <c r="V58" s="59"/>
       <c r="W58" s="60"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
@@ -3012,7 +3079,7 @@
       <c r="V59" s="59"/>
       <c r="W59" s="60"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
@@ -3037,7 +3104,7 @@
       <c r="V60" s="59"/>
       <c r="W60" s="60"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -3062,7 +3129,7 @@
       <c r="V61" s="59"/>
       <c r="W61" s="60"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="59"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
@@ -3087,7 +3154,7 @@
       <c r="V62" s="59"/>
       <c r="W62" s="60"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
@@ -3112,7 +3179,7 @@
       <c r="V63" s="59"/>
       <c r="W63" s="60"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
@@ -3137,7 +3204,7 @@
       <c r="V64" s="59"/>
       <c r="W64" s="60"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -3162,7 +3229,7 @@
       <c r="V65" s="59"/>
       <c r="W65" s="60"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
@@ -3187,7 +3254,7 @@
       <c r="V66" s="59"/>
       <c r="W66" s="60"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="59"/>
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
@@ -3212,7 +3279,7 @@
       <c r="V67" s="59"/>
       <c r="W67" s="60"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="59"/>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
@@ -3237,7 +3304,7 @@
       <c r="V68" s="59"/>
       <c r="W68" s="60"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="59"/>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
@@ -3262,7 +3329,7 @@
       <c r="V69" s="59"/>
       <c r="W69" s="60"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
@@ -3287,7 +3354,7 @@
       <c r="V70" s="59"/>
       <c r="W70" s="60"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
@@ -3312,7 +3379,7 @@
       <c r="V71" s="59"/>
       <c r="W71" s="60"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
@@ -3337,7 +3404,7 @@
       <c r="V72" s="59"/>
       <c r="W72" s="60"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
@@ -3362,7 +3429,7 @@
       <c r="V73" s="59"/>
       <c r="W73" s="60"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
@@ -3387,7 +3454,7 @@
       <c r="V74" s="59"/>
       <c r="W74" s="60"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
@@ -3412,7 +3479,7 @@
       <c r="V75" s="59"/>
       <c r="W75" s="60"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
@@ -3437,7 +3504,7 @@
       <c r="V76" s="59"/>
       <c r="W76" s="60"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
@@ -3462,7 +3529,7 @@
       <c r="V77" s="59"/>
       <c r="W77" s="60"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23">
       <c r="A78" s="59"/>
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
@@ -3487,7 +3554,7 @@
       <c r="V78" s="59"/>
       <c r="W78" s="60"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23">
       <c r="A79" s="59"/>
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
@@ -3512,7 +3579,7 @@
       <c r="V79" s="59"/>
       <c r="W79" s="60"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="59"/>
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
@@ -3537,7 +3604,7 @@
       <c r="V80" s="59"/>
       <c r="W80" s="60"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="59"/>
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
@@ -3562,7 +3629,7 @@
       <c r="V81" s="59"/>
       <c r="W81" s="60"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
@@ -3587,7 +3654,7 @@
       <c r="V82" s="59"/>
       <c r="W82" s="60"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="59"/>
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
@@ -3612,7 +3679,7 @@
       <c r="V83" s="59"/>
       <c r="W83" s="60"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="59"/>
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
@@ -3637,7 +3704,7 @@
       <c r="V84" s="59"/>
       <c r="W84" s="60"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="59"/>
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
@@ -3662,7 +3729,7 @@
       <c r="V85" s="59"/>
       <c r="W85" s="60"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="59"/>
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
@@ -3687,7 +3754,7 @@
       <c r="V86" s="59"/>
       <c r="W86" s="60"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="59"/>
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
@@ -3712,7 +3779,7 @@
       <c r="V87" s="59"/>
       <c r="W87" s="60"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
@@ -3737,7 +3804,7 @@
       <c r="V88" s="59"/>
       <c r="W88" s="60"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="59"/>
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
@@ -3762,7 +3829,7 @@
       <c r="V89" s="59"/>
       <c r="W89" s="60"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="59"/>
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
@@ -3787,7 +3854,7 @@
       <c r="V90" s="59"/>
       <c r="W90" s="60"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="59"/>
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
@@ -3812,7 +3879,7 @@
       <c r="V91" s="59"/>
       <c r="W91" s="60"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="59"/>
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
@@ -3837,7 +3904,7 @@
       <c r="V92" s="59"/>
       <c r="W92" s="60"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="59"/>
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
@@ -3862,7 +3929,7 @@
       <c r="V93" s="59"/>
       <c r="W93" s="60"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="59"/>
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
@@ -3887,7 +3954,7 @@
       <c r="V94" s="59"/>
       <c r="W94" s="60"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="59"/>
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
@@ -3912,7 +3979,7 @@
       <c r="V95" s="59"/>
       <c r="W95" s="60"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="59"/>
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
@@ -3937,7 +4004,7 @@
       <c r="V96" s="59"/>
       <c r="W96" s="60"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
@@ -3962,7 +4029,7 @@
       <c r="V97" s="59"/>
       <c r="W97" s="60"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="59"/>
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
@@ -3987,7 +4054,7 @@
       <c r="V98" s="59"/>
       <c r="W98" s="60"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="59"/>
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
@@ -4012,7 +4079,7 @@
       <c r="V99" s="59"/>
       <c r="W99" s="60"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="59"/>
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
@@ -4037,7 +4104,7 @@
       <c r="V100" s="59"/>
       <c r="W100" s="60"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="59"/>
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
@@ -4062,7 +4129,7 @@
       <c r="V101" s="59"/>
       <c r="W101" s="60"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="59"/>
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
@@ -4087,7 +4154,7 @@
       <c r="V102" s="59"/>
       <c r="W102" s="60"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="59"/>
       <c r="B103" s="59"/>
       <c r="C103" s="59"/>
@@ -4112,7 +4179,7 @@
       <c r="V103" s="59"/>
       <c r="W103" s="60"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="59"/>
       <c r="B104" s="59"/>
       <c r="C104" s="59"/>
@@ -4137,7 +4204,7 @@
       <c r="V104" s="59"/>
       <c r="W104" s="60"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="59"/>
       <c r="B105" s="59"/>
       <c r="C105" s="59"/>
@@ -4162,7 +4229,7 @@
       <c r="V105" s="59"/>
       <c r="W105" s="60"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="59"/>
       <c r="B106" s="59"/>
       <c r="C106" s="59"/>
@@ -4187,7 +4254,7 @@
       <c r="V106" s="59"/>
       <c r="W106" s="60"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="59"/>
       <c r="B107" s="59"/>
       <c r="C107" s="59"/>
@@ -4212,7 +4279,7 @@
       <c r="V107" s="59"/>
       <c r="W107" s="60"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="59"/>
       <c r="B108" s="59"/>
       <c r="C108" s="59"/>
@@ -4237,7 +4304,7 @@
       <c r="V108" s="59"/>
       <c r="W108" s="60"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="59"/>
       <c r="B109" s="59"/>
       <c r="C109" s="59"/>
@@ -4262,7 +4329,7 @@
       <c r="V109" s="59"/>
       <c r="W109" s="60"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="59"/>
       <c r="B110" s="59"/>
       <c r="C110" s="59"/>
@@ -4287,7 +4354,7 @@
       <c r="V110" s="59"/>
       <c r="W110" s="60"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="59"/>
       <c r="B111" s="59"/>
       <c r="C111" s="59"/>
@@ -4312,7 +4379,7 @@
       <c r="V111" s="59"/>
       <c r="W111" s="60"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="59"/>
       <c r="B112" s="59"/>
       <c r="C112" s="59"/>
@@ -4337,7 +4404,7 @@
       <c r="V112" s="59"/>
       <c r="W112" s="60"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="59"/>
       <c r="B113" s="59"/>
       <c r="C113" s="59"/>
@@ -4362,7 +4429,7 @@
       <c r="V113" s="59"/>
       <c r="W113" s="60"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="59"/>
       <c r="B114" s="59"/>
       <c r="C114" s="59"/>
@@ -4387,7 +4454,7 @@
       <c r="V114" s="59"/>
       <c r="W114" s="60"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="59"/>
       <c r="B115" s="59"/>
       <c r="C115" s="59"/>
@@ -4412,7 +4479,7 @@
       <c r="V115" s="59"/>
       <c r="W115" s="60"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="59"/>
       <c r="B116" s="59"/>
       <c r="C116" s="59"/>
@@ -4437,7 +4504,7 @@
       <c r="V116" s="59"/>
       <c r="W116" s="60"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="59"/>
       <c r="B117" s="59"/>
       <c r="C117" s="59"/>
@@ -4462,7 +4529,7 @@
       <c r="V117" s="59"/>
       <c r="W117" s="60"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="59"/>
       <c r="B118" s="59"/>
       <c r="C118" s="59"/>
@@ -4487,7 +4554,7 @@
       <c r="V118" s="59"/>
       <c r="W118" s="60"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="59"/>
       <c r="B119" s="59"/>
       <c r="C119" s="59"/>
@@ -4512,7 +4579,7 @@
       <c r="V119" s="59"/>
       <c r="W119" s="60"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="59"/>
       <c r="B120" s="59"/>
       <c r="C120" s="59"/>
@@ -4537,7 +4604,7 @@
       <c r="V120" s="59"/>
       <c r="W120" s="60"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="59"/>
       <c r="B121" s="59"/>
       <c r="C121" s="59"/>
@@ -4562,7 +4629,7 @@
       <c r="V121" s="59"/>
       <c r="W121" s="60"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="59"/>
       <c r="B122" s="59"/>
       <c r="C122" s="59"/>
@@ -4587,7 +4654,7 @@
       <c r="V122" s="59"/>
       <c r="W122" s="60"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="59"/>
       <c r="B123" s="59"/>
       <c r="C123" s="59"/>
@@ -4612,7 +4679,7 @@
       <c r="V123" s="59"/>
       <c r="W123" s="60"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="59"/>
       <c r="B124" s="59"/>
       <c r="C124" s="59"/>
@@ -4637,7 +4704,7 @@
       <c r="V124" s="59"/>
       <c r="W124" s="60"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="59"/>
       <c r="B125" s="59"/>
       <c r="C125" s="59"/>
@@ -4662,7 +4729,7 @@
       <c r="V125" s="59"/>
       <c r="W125" s="60"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="59"/>
       <c r="B126" s="59"/>
       <c r="C126" s="59"/>
@@ -4687,7 +4754,7 @@
       <c r="V126" s="59"/>
       <c r="W126" s="60"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="59"/>
       <c r="B127" s="59"/>
       <c r="C127" s="59"/>
@@ -4712,7 +4779,7 @@
       <c r="V127" s="59"/>
       <c r="W127" s="60"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="59"/>
       <c r="B128" s="59"/>
       <c r="C128" s="59"/>
@@ -4737,7 +4804,7 @@
       <c r="V128" s="59"/>
       <c r="W128" s="60"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="59"/>
       <c r="B129" s="59"/>
       <c r="C129" s="59"/>
@@ -4762,7 +4829,7 @@
       <c r="V129" s="59"/>
       <c r="W129" s="60"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="59"/>
       <c r="B130" s="59"/>
       <c r="C130" s="59"/>
@@ -4787,7 +4854,7 @@
       <c r="V130" s="59"/>
       <c r="W130" s="60"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="59"/>
       <c r="B131" s="59"/>
       <c r="C131" s="59"/>
@@ -4812,7 +4879,7 @@
       <c r="V131" s="59"/>
       <c r="W131" s="60"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="59"/>
       <c r="B132" s="59"/>
       <c r="C132" s="59"/>
@@ -4833,7 +4900,7 @@
       <c r="R132" s="60"/>
       <c r="W132" s="60"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="59"/>
       <c r="B133" s="59"/>
       <c r="C133" s="59"/>
@@ -4854,7 +4921,7 @@
       <c r="R133" s="60"/>
       <c r="W133" s="60"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="59"/>
       <c r="B134" s="59"/>
       <c r="C134" s="59"/>
@@ -4875,7 +4942,7 @@
       <c r="R134" s="60"/>
       <c r="W134" s="60"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="59"/>
       <c r="B135" s="59"/>
       <c r="C135" s="59"/>
@@ -4896,7 +4963,7 @@
       <c r="R135" s="60"/>
       <c r="W135" s="60"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="59"/>
       <c r="B136" s="59"/>
       <c r="C136" s="59"/>
@@ -4917,7 +4984,7 @@
       <c r="R136" s="60"/>
       <c r="W136" s="60"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="59"/>
       <c r="B137" s="59"/>
       <c r="C137" s="59"/>
@@ -4938,7 +5005,7 @@
       <c r="R137" s="60"/>
       <c r="W137" s="60"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="59"/>
       <c r="B138" s="59"/>
       <c r="C138" s="59"/>
@@ -4959,7 +5026,7 @@
       <c r="R138" s="60"/>
       <c r="W138" s="60"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="59"/>
       <c r="B139" s="59"/>
       <c r="C139" s="59"/>
@@ -4980,7 +5047,7 @@
       <c r="R139" s="60"/>
       <c r="W139" s="60"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="59"/>
       <c r="B140" s="59"/>
       <c r="C140" s="59"/>
@@ -5001,7 +5068,7 @@
       <c r="R140" s="60"/>
       <c r="W140" s="60"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="59"/>
       <c r="B141" s="59"/>
       <c r="C141" s="59"/>
@@ -5022,7 +5089,7 @@
       <c r="R141" s="60"/>
       <c r="W141" s="60"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="59"/>
       <c r="B142" s="59"/>
       <c r="C142" s="59"/>
@@ -5043,7 +5110,7 @@
       <c r="R142" s="60"/>
       <c r="W142" s="60"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="59"/>
       <c r="B143" s="59"/>
       <c r="C143" s="59"/>
@@ -5064,7 +5131,7 @@
       <c r="R143" s="60"/>
       <c r="W143" s="60"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="59"/>
       <c r="B144" s="59"/>
       <c r="C144" s="59"/>
@@ -5085,7 +5152,7 @@
       <c r="R144" s="60"/>
       <c r="W144" s="60"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="59"/>
       <c r="B145" s="59"/>
       <c r="C145" s="59"/>
@@ -5106,7 +5173,7 @@
       <c r="R145" s="60"/>
       <c r="W145" s="60"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="59"/>
       <c r="B146" s="59"/>
       <c r="C146" s="59"/>
@@ -5127,7 +5194,7 @@
       <c r="R146" s="60"/>
       <c r="W146" s="60"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="59"/>
       <c r="B147" s="59"/>
       <c r="C147" s="59"/>
@@ -5148,7 +5215,7 @@
       <c r="R147" s="60"/>
       <c r="W147" s="60"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="59"/>
       <c r="B148" s="59"/>
       <c r="C148" s="59"/>
@@ -5169,7 +5236,7 @@
       <c r="R148" s="60"/>
       <c r="W148" s="60"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="59"/>
       <c r="B149" s="59"/>
       <c r="C149" s="59"/>
@@ -5190,7 +5257,7 @@
       <c r="R149" s="60"/>
       <c r="W149" s="60"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="59"/>
       <c r="B150" s="59"/>
       <c r="C150" s="59"/>
@@ -5211,7 +5278,7 @@
       <c r="R150" s="60"/>
       <c r="W150" s="60"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="59"/>
       <c r="B151" s="59"/>
       <c r="C151" s="59"/>
@@ -5232,7 +5299,7 @@
       <c r="R151" s="60"/>
       <c r="W151" s="60"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="59"/>
       <c r="B152" s="59"/>
       <c r="C152" s="59"/>
@@ -5253,7 +5320,7 @@
       <c r="R152" s="60"/>
       <c r="W152" s="60"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="59"/>
       <c r="B153" s="59"/>
       <c r="C153" s="59"/>
@@ -5274,7 +5341,7 @@
       <c r="R153" s="60"/>
       <c r="W153" s="60"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="59"/>
       <c r="B154" s="59"/>
       <c r="C154" s="59"/>
@@ -5295,7 +5362,7 @@
       <c r="R154" s="60"/>
       <c r="W154" s="60"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="59"/>
       <c r="B155" s="59"/>
       <c r="C155" s="59"/>
@@ -5316,7 +5383,7 @@
       <c r="R155" s="60"/>
       <c r="W155" s="60"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="59"/>
       <c r="B156" s="59"/>
       <c r="C156" s="59"/>
@@ -5337,7 +5404,7 @@
       <c r="R156" s="60"/>
       <c r="W156" s="60"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="59"/>
       <c r="B157" s="59"/>
       <c r="C157" s="59"/>
@@ -5358,7 +5425,7 @@
       <c r="R157" s="60"/>
       <c r="W157" s="60"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="59"/>
       <c r="B158" s="59"/>
       <c r="C158" s="59"/>
@@ -5379,7 +5446,7 @@
       <c r="R158" s="60"/>
       <c r="W158" s="60"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="59"/>
       <c r="B159" s="59"/>
       <c r="C159" s="59"/>
@@ -5400,7 +5467,7 @@
       <c r="R159" s="60"/>
       <c r="W159" s="60"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="59"/>
       <c r="B160" s="59"/>
       <c r="C160" s="59"/>
@@ -5421,7 +5488,7 @@
       <c r="R160" s="60"/>
       <c r="W160" s="60"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="59"/>
       <c r="B161" s="59"/>
       <c r="C161" s="59"/>
@@ -5442,7 +5509,7 @@
       <c r="R161" s="60"/>
       <c r="W161" s="60"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="59"/>
       <c r="B162" s="59"/>
       <c r="C162" s="59"/>
@@ -5463,7 +5530,7 @@
       <c r="R162" s="60"/>
       <c r="W162" s="60"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="59"/>
       <c r="B163" s="59"/>
       <c r="C163" s="59"/>
@@ -5484,7 +5551,7 @@
       <c r="R163" s="60"/>
       <c r="W163" s="60"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="59"/>
       <c r="B164" s="59"/>
       <c r="C164" s="59"/>
@@ -5505,7 +5572,7 @@
       <c r="R164" s="60"/>
       <c r="W164" s="60"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="59"/>
       <c r="B165" s="59"/>
       <c r="C165" s="59"/>
@@ -5526,7 +5593,7 @@
       <c r="R165" s="60"/>
       <c r="W165" s="60"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="59"/>
       <c r="B166" s="59"/>
       <c r="C166" s="59"/>
@@ -5581,14 +5648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5608,7 +5675,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -5664,9 +5731,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>81</v>
@@ -5675,50 +5742,50 @@
         <v>82</v>
       </c>
       <c r="D2" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="G2" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="H2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="41" t="s">
+      <c r="Q2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" s="43" t="s">
-        <v>92</v>
-      </c>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5738,7 +5805,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5765,14 +5832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
@@ -5785,7 +5852,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="81" t="s">
         <v>39</v>
       </c>
@@ -5800,7 +5867,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -5835,7 +5902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="83"/>
       <c r="B3" s="83"/>
       <c r="C3" s="20"/>
@@ -5848,7 +5915,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="84"/>
       <c r="B4" s="85"/>
       <c r="C4" s="20"/>
@@ -5861,7 +5928,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="83"/>
       <c r="B5" s="83"/>
       <c r="C5" s="20"/>
@@ -5874,7 +5941,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="20"/>
@@ -5887,7 +5954,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="85"/>
       <c r="B7" s="85"/>
       <c r="C7" s="20"/>
@@ -5900,7 +5967,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="85"/>
       <c r="B8" s="85"/>
       <c r="C8" s="20"/>
@@ -5913,7 +5980,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="85"/>
       <c r="B9" s="85"/>
       <c r="C9" s="20"/>
@@ -5926,7 +5993,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="20"/>
@@ -5939,7 +6006,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5966,14 +6033,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5988,7 +6055,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
@@ -6005,7 +6072,7 @@
       <c r="L1" s="86"/>
       <c r="M1" s="87"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -6020,7 +6087,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="89"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6061,7 +6128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6076,7 +6143,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6091,7 +6158,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6106,7 +6173,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6121,7 +6188,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6136,7 +6203,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6151,7 +6218,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6166,7 +6233,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6181,7 +6248,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6196,7 +6263,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6211,7 +6278,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6226,7 +6293,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6241,7 +6308,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6280,14 +6347,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6302,7 +6369,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
@@ -6319,7 +6386,7 @@
       <c r="L1" s="86"/>
       <c r="M1" s="87"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -6334,7 +6401,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="89"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6375,7 +6442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6390,7 +6457,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6405,7 +6472,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6420,7 +6487,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6435,7 +6502,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6450,7 +6517,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6465,7 +6532,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6480,7 +6547,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6495,7 +6562,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6510,7 +6577,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6525,7 +6592,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6540,7 +6607,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6555,7 +6622,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6594,14 +6661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6616,7 +6683,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
@@ -6633,7 +6700,7 @@
       <c r="L1" s="86"/>
       <c r="M1" s="87"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -6648,7 +6715,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="89"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6689,7 +6756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6704,7 +6771,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6719,7 +6786,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6734,7 +6801,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6749,7 +6816,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6764,7 +6831,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6779,7 +6846,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6794,7 +6861,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6809,7 +6876,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6824,7 +6891,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6839,7 +6906,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6854,7 +6921,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6869,7 +6936,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6908,14 +6975,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -6932,7 +6999,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
@@ -6949,7 +7016,7 @@
       <c r="L1" s="86"/>
       <c r="M1" s="87"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -6964,7 +7031,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="89"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7005,7 +7072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7020,7 +7087,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7035,7 +7102,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7050,7 +7117,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7065,7 +7132,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7080,7 +7147,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7095,7 +7162,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7110,7 +7177,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7125,7 +7192,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7140,7 +7207,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7155,7 +7222,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7170,7 +7237,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7185,7 +7252,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7224,14 +7291,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7242,7 +7309,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -7268,7 +7335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7278,7 +7345,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7288,7 +7355,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7298,7 +7365,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7308,7 +7375,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7318,7 +7385,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7328,7 +7395,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7338,7 +7405,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7348,7 +7415,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7358,7 +7425,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7368,7 +7435,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7378,7 +7445,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7388,7 +7455,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7398,7 +7465,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7408,7 +7475,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7418,7 +7485,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7428,7 +7495,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7438,7 +7505,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
